--- a/database/industries/dode/shesadaf/cost/quarterly.xlsx
+++ b/database/industries/dode/shesadaf/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB576A9-7A99-4108-A0A1-EAD86B2607C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862CE80-1F0D-40E2-9B9D-17286C13B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شصدف-صنعتی دوده فام</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -64,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -701,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N133"/>
+  <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,13 +701,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,13 +713,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -753,13 +725,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -768,13 +735,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -785,13 +747,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -802,13 +759,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -817,13 +769,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -844,23 +791,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -869,163 +801,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>536071</v>
+        <v>2597309</v>
       </c>
       <c r="F10" s="9">
-        <v>628431</v>
+        <v>2715683</v>
       </c>
       <c r="G10" s="9">
-        <v>908458</v>
+        <v>3968981</v>
       </c>
       <c r="H10" s="9">
-        <v>1219919</v>
+        <v>3896516</v>
       </c>
       <c r="I10" s="9">
-        <v>1469831</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1872661</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2597309</v>
-      </c>
-      <c r="L10" s="9">
-        <v>2715683</v>
-      </c>
-      <c r="M10" s="9">
-        <v>3968981</v>
-      </c>
-      <c r="N10" s="9">
-        <v>4050253</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3118800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>11834</v>
+        <v>15615</v>
       </c>
       <c r="F11" s="11">
-        <v>10574</v>
+        <v>29603</v>
       </c>
       <c r="G11" s="11">
-        <v>16556</v>
+        <v>31501</v>
       </c>
       <c r="H11" s="11">
-        <v>15395</v>
+        <v>27800</v>
       </c>
       <c r="I11" s="11">
-        <v>71993</v>
-      </c>
-      <c r="J11" s="11">
-        <v>-37912</v>
-      </c>
-      <c r="K11" s="11">
-        <v>15615</v>
-      </c>
-      <c r="L11" s="11">
-        <v>29603</v>
-      </c>
-      <c r="M11" s="11">
-        <v>31501</v>
-      </c>
-      <c r="N11" s="11">
-        <v>27799</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>31650</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>78166</v>
+        <v>296539</v>
       </c>
       <c r="F12" s="9">
-        <v>85996</v>
+        <v>378981</v>
       </c>
       <c r="G12" s="9">
-        <v>99839</v>
+        <v>331887</v>
       </c>
       <c r="H12" s="9">
-        <v>176124</v>
+        <v>427062</v>
       </c>
       <c r="I12" s="9">
-        <v>72508</v>
-      </c>
-      <c r="J12" s="9">
-        <v>250923</v>
-      </c>
-      <c r="K12" s="9">
-        <v>296539</v>
-      </c>
-      <c r="L12" s="9">
-        <v>378981</v>
-      </c>
-      <c r="M12" s="9">
-        <v>331887</v>
-      </c>
-      <c r="N12" s="9">
-        <v>397116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>403143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>626071</v>
+        <v>2909463</v>
       </c>
       <c r="F13" s="13">
-        <v>725001</v>
+        <v>3124267</v>
       </c>
       <c r="G13" s="13">
-        <v>1024853</v>
+        <v>4332369</v>
       </c>
       <c r="H13" s="13">
-        <v>1411438</v>
+        <v>4351378</v>
       </c>
       <c r="I13" s="13">
-        <v>1614332</v>
-      </c>
-      <c r="J13" s="13">
-        <v>2085672</v>
-      </c>
-      <c r="K13" s="13">
-        <v>2909463</v>
-      </c>
-      <c r="L13" s="13">
-        <v>3124267</v>
-      </c>
-      <c r="M13" s="13">
-        <v>4332369</v>
-      </c>
-      <c r="N13" s="13">
-        <v>4475168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3553593</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1044,62 +911,32 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>626071</v>
+        <v>2909463</v>
       </c>
       <c r="F15" s="13">
-        <v>725001</v>
+        <v>3124267</v>
       </c>
       <c r="G15" s="13">
-        <v>1024853</v>
+        <v>4332369</v>
       </c>
       <c r="H15" s="13">
-        <v>1411438</v>
+        <v>4351378</v>
       </c>
       <c r="I15" s="13">
-        <v>1614332</v>
-      </c>
-      <c r="J15" s="13">
-        <v>2085672</v>
-      </c>
-      <c r="K15" s="13">
-        <v>2909463</v>
-      </c>
-      <c r="L15" s="13">
-        <v>3124267</v>
-      </c>
-      <c r="M15" s="13">
-        <v>4332369</v>
-      </c>
-      <c r="N15" s="13">
-        <v>4475168</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3553593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1118,25 +955,10 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1155,173 +977,98 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>626071</v>
+        <v>2909463</v>
       </c>
       <c r="F18" s="15">
-        <v>725001</v>
+        <v>3124267</v>
       </c>
       <c r="G18" s="15">
-        <v>1024853</v>
+        <v>4332369</v>
       </c>
       <c r="H18" s="15">
-        <v>1411438</v>
+        <v>4351378</v>
       </c>
       <c r="I18" s="15">
-        <v>1614332</v>
-      </c>
-      <c r="J18" s="15">
-        <v>2085672</v>
-      </c>
-      <c r="K18" s="15">
-        <v>2909463</v>
-      </c>
-      <c r="L18" s="15">
-        <v>3124267</v>
-      </c>
-      <c r="M18" s="15">
-        <v>4332369</v>
-      </c>
-      <c r="N18" s="15">
-        <v>4475168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3553593</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>150442</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>500091</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1258329</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>1045053</v>
       </c>
       <c r="I19" s="11">
-        <v>23714</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1258329</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2045716</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-170669</v>
+        <v>-500091</v>
       </c>
       <c r="F20" s="9">
-        <v>152219</v>
+        <v>-1258329</v>
       </c>
       <c r="G20" s="9">
-        <v>-17774</v>
+        <v>-1045053</v>
       </c>
       <c r="H20" s="9">
-        <v>12510</v>
+        <v>-2045716</v>
       </c>
       <c r="I20" s="9">
-        <v>-166325</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-205579</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-500091</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-386334</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-1045053</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-977437</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2740403</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>605844</v>
+        <v>2409372</v>
       </c>
       <c r="F21" s="13">
-        <v>877220</v>
+        <v>2737933</v>
       </c>
       <c r="G21" s="13">
-        <v>1007079</v>
+        <v>4545645</v>
       </c>
       <c r="H21" s="13">
-        <v>1423948</v>
+        <v>3350715</v>
       </c>
       <c r="I21" s="13">
-        <v>1471721</v>
-      </c>
-      <c r="J21" s="13">
-        <v>1880093</v>
-      </c>
-      <c r="K21" s="13">
-        <v>2409372</v>
-      </c>
-      <c r="L21" s="13">
-        <v>2737933</v>
-      </c>
-      <c r="M21" s="13">
-        <v>4545645</v>
-      </c>
-      <c r="N21" s="13">
-        <v>3497731</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2858906</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1340,60 +1087,30 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>605844</v>
+        <v>2409372</v>
       </c>
       <c r="F23" s="13">
-        <v>877220</v>
+        <v>2737933</v>
       </c>
       <c r="G23" s="13">
-        <v>1007079</v>
+        <v>4545645</v>
       </c>
       <c r="H23" s="13">
-        <v>1423948</v>
+        <v>3350715</v>
       </c>
       <c r="I23" s="13">
-        <v>1471721</v>
-      </c>
-      <c r="J23" s="13">
-        <v>1880093</v>
-      </c>
-      <c r="K23" s="13">
-        <v>2409372</v>
-      </c>
-      <c r="L23" s="13">
-        <v>2737933</v>
-      </c>
-      <c r="M23" s="13">
-        <v>4545645</v>
-      </c>
-      <c r="N23" s="13">
-        <v>3497731</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2858906</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1402,13 +1119,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1417,13 +1129,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1432,15 +1139,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1459,23 +1161,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1484,89 +1171,54 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>4910775</v>
+        <v>7328384</v>
       </c>
       <c r="F29" s="9">
-        <v>4493975</v>
+        <v>4033381</v>
       </c>
       <c r="G29" s="9">
-        <v>5480410</v>
+        <v>3473799</v>
       </c>
       <c r="H29" s="9">
-        <v>4849205</v>
+        <v>4914406</v>
       </c>
       <c r="I29" s="9">
-        <v>5431844</v>
-      </c>
-      <c r="J29" s="9">
-        <v>5711666</v>
-      </c>
-      <c r="K29" s="9">
-        <v>7328384</v>
-      </c>
-      <c r="L29" s="9">
-        <v>4033381</v>
-      </c>
-      <c r="M29" s="9">
-        <v>3473799</v>
-      </c>
-      <c r="N29" s="9">
-        <v>4914406</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6783323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>4910775</v>
+        <v>7328384</v>
       </c>
       <c r="F30" s="13">
-        <v>4493975</v>
+        <v>4033381</v>
       </c>
       <c r="G30" s="13">
-        <v>5480410</v>
+        <v>3473799</v>
       </c>
       <c r="H30" s="13">
-        <v>4849205</v>
+        <v>4914406</v>
       </c>
       <c r="I30" s="13">
-        <v>5431844</v>
-      </c>
-      <c r="J30" s="13">
-        <v>5711666</v>
-      </c>
-      <c r="K30" s="13">
-        <v>7328384</v>
-      </c>
-      <c r="L30" s="13">
-        <v>4033381</v>
-      </c>
-      <c r="M30" s="13">
-        <v>3473799</v>
-      </c>
-      <c r="N30" s="13">
-        <v>4914406</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6783323</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1575,13 +1227,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1590,13 +1237,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1605,15 +1247,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1632,23 +1269,8 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1657,89 +1279,54 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>16616927</v>
+        <v>21212216</v>
       </c>
       <c r="F36" s="9">
-        <v>17916048</v>
+        <v>22875803</v>
       </c>
       <c r="G36" s="9">
-        <v>16783328</v>
+        <v>27036706</v>
       </c>
       <c r="H36" s="9">
-        <v>-51246226</v>
+        <v>27363592</v>
       </c>
       <c r="I36" s="9">
-        <v>17689548</v>
-      </c>
-      <c r="J36" s="9">
-        <v>22526930</v>
-      </c>
-      <c r="K36" s="9">
-        <v>21212216</v>
-      </c>
-      <c r="L36" s="9">
-        <v>22875803</v>
-      </c>
-      <c r="M36" s="9">
-        <v>27036706</v>
-      </c>
-      <c r="N36" s="9">
-        <v>27363592</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>19486145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>16616927</v>
+        <v>21212216</v>
       </c>
       <c r="F37" s="13">
-        <v>17916048</v>
+        <v>22875803</v>
       </c>
       <c r="G37" s="13">
-        <v>16783328</v>
+        <v>27036706</v>
       </c>
       <c r="H37" s="13">
-        <v>-51246226</v>
+        <v>27363592</v>
       </c>
       <c r="I37" s="13">
-        <v>17689548</v>
-      </c>
-      <c r="J37" s="13">
-        <v>22526930</v>
-      </c>
-      <c r="K37" s="13">
-        <v>21212216</v>
-      </c>
-      <c r="L37" s="13">
-        <v>22875803</v>
-      </c>
-      <c r="M37" s="13">
-        <v>27036706</v>
-      </c>
-      <c r="N37" s="13">
-        <v>27363592</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>19486145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1748,13 +1335,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1763,13 +1345,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1778,15 +1355,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1805,23 +1377,8 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1830,89 +1387,54 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>17033727</v>
+        <v>24507219</v>
       </c>
       <c r="F43" s="9">
-        <v>16929613</v>
+        <v>23435385</v>
       </c>
       <c r="G43" s="9">
-        <v>17414533</v>
+        <v>25596099</v>
       </c>
       <c r="H43" s="9">
-        <v>-51309523</v>
+        <v>25494675</v>
       </c>
       <c r="I43" s="9">
-        <v>17409726</v>
-      </c>
-      <c r="J43" s="9">
-        <v>20910212</v>
-      </c>
-      <c r="K43" s="9">
-        <v>24507219</v>
-      </c>
-      <c r="L43" s="9">
-        <v>23435385</v>
-      </c>
-      <c r="M43" s="9">
-        <v>25596099</v>
-      </c>
-      <c r="N43" s="9">
-        <v>25494675</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>23629528</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>17033727</v>
+        <v>24507219</v>
       </c>
       <c r="F44" s="13">
-        <v>16929613</v>
+        <v>23435385</v>
       </c>
       <c r="G44" s="13">
-        <v>17414533</v>
+        <v>25596099</v>
       </c>
       <c r="H44" s="13">
-        <v>-51309523</v>
+        <v>25494675</v>
       </c>
       <c r="I44" s="13">
-        <v>17409726</v>
-      </c>
-      <c r="J44" s="13">
-        <v>20910212</v>
-      </c>
-      <c r="K44" s="13">
-        <v>24507219</v>
-      </c>
-      <c r="L44" s="13">
-        <v>23435385</v>
-      </c>
-      <c r="M44" s="13">
-        <v>25596099</v>
-      </c>
-      <c r="N44" s="13">
-        <v>25494675</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>23629528</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1921,13 +1443,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1936,13 +1453,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1951,15 +1463,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1978,23 +1485,8 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2003,89 +1495,54 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>4493975</v>
+        <v>4033381</v>
       </c>
       <c r="F50" s="9">
-        <v>5480410</v>
+        <v>3473799</v>
       </c>
       <c r="G50" s="9">
-        <v>4849205</v>
+        <v>4914406</v>
       </c>
       <c r="H50" s="9">
-        <v>5432</v>
+        <v>6783323</v>
       </c>
       <c r="I50" s="9">
-        <v>5711666</v>
-      </c>
-      <c r="J50" s="9">
-        <v>7328384</v>
-      </c>
-      <c r="K50" s="9">
-        <v>4033381</v>
-      </c>
-      <c r="L50" s="9">
-        <v>3473799</v>
-      </c>
-      <c r="M50" s="9">
-        <v>4914406</v>
-      </c>
-      <c r="N50" s="9">
-        <v>6783323</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2639940</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>4493975</v>
+        <v>4033381</v>
       </c>
       <c r="F51" s="13">
-        <v>5480410</v>
+        <v>3473799</v>
       </c>
       <c r="G51" s="13">
-        <v>4849205</v>
+        <v>4914406</v>
       </c>
       <c r="H51" s="13">
-        <v>5432</v>
+        <v>6783323</v>
       </c>
       <c r="I51" s="13">
-        <v>5711666</v>
-      </c>
-      <c r="J51" s="13">
-        <v>7328384</v>
-      </c>
-      <c r="K51" s="13">
-        <v>4033381</v>
-      </c>
-      <c r="L51" s="13">
-        <v>3473799</v>
-      </c>
-      <c r="M51" s="13">
-        <v>4914406</v>
-      </c>
-      <c r="N51" s="13">
-        <v>6783323</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2639940</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2094,13 +1551,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2109,13 +1561,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2124,15 +1571,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2151,23 +1593,8 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2176,89 +1603,54 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>182608</v>
+        <v>728625</v>
       </c>
       <c r="F57" s="9">
-        <v>94133</v>
+        <v>439314</v>
       </c>
       <c r="G57" s="9">
-        <v>197144</v>
+        <v>507697</v>
       </c>
       <c r="H57" s="9">
-        <v>229287</v>
+        <v>818601</v>
       </c>
       <c r="I57" s="9">
-        <v>446256</v>
-      </c>
-      <c r="J57" s="9">
-        <v>438082</v>
-      </c>
-      <c r="K57" s="9">
-        <v>728625</v>
-      </c>
-      <c r="L57" s="9">
-        <v>439314</v>
-      </c>
-      <c r="M57" s="9">
-        <v>507697</v>
-      </c>
-      <c r="N57" s="9">
-        <v>818601</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>957922</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>182608</v>
+        <v>728625</v>
       </c>
       <c r="F58" s="13">
-        <v>94133</v>
+        <v>439314</v>
       </c>
       <c r="G58" s="13">
-        <v>197144</v>
+        <v>507697</v>
       </c>
       <c r="H58" s="13">
-        <v>229287</v>
+        <v>818601</v>
       </c>
       <c r="I58" s="13">
-        <v>446256</v>
-      </c>
-      <c r="J58" s="13">
-        <v>438082</v>
-      </c>
-      <c r="K58" s="13">
-        <v>728625</v>
-      </c>
-      <c r="L58" s="13">
-        <v>439314</v>
-      </c>
-      <c r="M58" s="13">
-        <v>507697</v>
-      </c>
-      <c r="N58" s="13">
-        <v>818601</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>957922</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2267,13 +1659,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2282,13 +1669,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2297,15 +1679,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2324,23 +1701,8 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2349,89 +1711,54 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>447596</v>
+        <v>2307998</v>
       </c>
       <c r="F64" s="9">
-        <v>731442</v>
+        <v>2784066</v>
       </c>
       <c r="G64" s="9">
-        <v>940601</v>
+        <v>4279885</v>
       </c>
       <c r="H64" s="9">
-        <v>1440772</v>
+        <v>4035837</v>
       </c>
       <c r="I64" s="9">
-        <v>1461657</v>
-      </c>
-      <c r="J64" s="9">
-        <v>2163206</v>
-      </c>
-      <c r="K64" s="9">
-        <v>2307998</v>
-      </c>
-      <c r="L64" s="9">
-        <v>2784066</v>
-      </c>
-      <c r="M64" s="9">
-        <v>4279885</v>
-      </c>
-      <c r="N64" s="9">
-        <v>4211475</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2597554</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>447596</v>
+        <v>2307998</v>
       </c>
       <c r="F65" s="13">
-        <v>731442</v>
+        <v>2784066</v>
       </c>
       <c r="G65" s="13">
-        <v>940601</v>
+        <v>4279885</v>
       </c>
       <c r="H65" s="13">
-        <v>1440772</v>
+        <v>4035837</v>
       </c>
       <c r="I65" s="13">
-        <v>1461657</v>
-      </c>
-      <c r="J65" s="13">
-        <v>2163206</v>
-      </c>
-      <c r="K65" s="13">
-        <v>2307998</v>
-      </c>
-      <c r="L65" s="13">
-        <v>2784066</v>
-      </c>
-      <c r="M65" s="13">
-        <v>4279885</v>
-      </c>
-      <c r="N65" s="13">
-        <v>4211475</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2597554</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2440,13 +1767,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2455,13 +1777,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2470,15 +1787,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2497,23 +1809,8 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2522,89 +1819,54 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>536071</v>
+        <v>2597309</v>
       </c>
       <c r="F71" s="9">
-        <v>628431</v>
+        <v>2715683</v>
       </c>
       <c r="G71" s="9">
-        <v>908458</v>
+        <v>3968981</v>
       </c>
       <c r="H71" s="9">
-        <v>1219919</v>
+        <v>3896516</v>
       </c>
       <c r="I71" s="9">
-        <v>1469831</v>
-      </c>
-      <c r="J71" s="9">
-        <v>1872661</v>
-      </c>
-      <c r="K71" s="9">
-        <v>2597309</v>
-      </c>
-      <c r="L71" s="9">
-        <v>2715683</v>
-      </c>
-      <c r="M71" s="9">
-        <v>3968981</v>
-      </c>
-      <c r="N71" s="9">
-        <v>4050253</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3118800</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>536071</v>
+        <v>2597309</v>
       </c>
       <c r="F72" s="13">
-        <v>628431</v>
+        <v>2715683</v>
       </c>
       <c r="G72" s="13">
-        <v>908458</v>
+        <v>3968981</v>
       </c>
       <c r="H72" s="13">
-        <v>1219919</v>
+        <v>3896516</v>
       </c>
       <c r="I72" s="13">
-        <v>1469831</v>
-      </c>
-      <c r="J72" s="13">
-        <v>1872661</v>
-      </c>
-      <c r="K72" s="13">
-        <v>2597309</v>
-      </c>
-      <c r="L72" s="13">
-        <v>2715683</v>
-      </c>
-      <c r="M72" s="13">
-        <v>3968981</v>
-      </c>
-      <c r="N72" s="13">
-        <v>4050253</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3118800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2613,13 +1875,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2628,13 +1885,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2643,15 +1895,10 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2670,23 +1917,8 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2695,89 +1927,54 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>94133</v>
+        <v>439314</v>
       </c>
       <c r="F78" s="9">
-        <v>197144</v>
+        <v>507697</v>
       </c>
       <c r="G78" s="9">
-        <v>229287</v>
+        <v>818601</v>
       </c>
       <c r="H78" s="9">
-        <v>446254</v>
+        <v>957922</v>
       </c>
       <c r="I78" s="9">
-        <v>438082</v>
-      </c>
-      <c r="J78" s="9">
-        <v>728625</v>
-      </c>
-      <c r="K78" s="9">
-        <v>439314</v>
-      </c>
-      <c r="L78" s="9">
-        <v>507697</v>
-      </c>
-      <c r="M78" s="9">
-        <v>818601</v>
-      </c>
-      <c r="N78" s="9">
-        <v>979823</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+        <v>436676</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>94133</v>
+        <v>439314</v>
       </c>
       <c r="F79" s="13">
-        <v>197144</v>
+        <v>507697</v>
       </c>
       <c r="G79" s="13">
-        <v>229287</v>
+        <v>818601</v>
       </c>
       <c r="H79" s="13">
-        <v>446254</v>
+        <v>957922</v>
       </c>
       <c r="I79" s="13">
-        <v>438082</v>
-      </c>
-      <c r="J79" s="13">
-        <v>728625</v>
-      </c>
-      <c r="K79" s="13">
-        <v>439314</v>
-      </c>
-      <c r="L79" s="13">
-        <v>507697</v>
-      </c>
-      <c r="M79" s="13">
-        <v>818601</v>
-      </c>
-      <c r="N79" s="13">
-        <v>979823</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+        <v>436676</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2786,13 +1983,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2801,13 +1993,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2816,15 +2003,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2843,23 +2025,8 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2868,52 +2035,32 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>37185</v>
+        <v>99425</v>
       </c>
       <c r="F85" s="9">
-        <v>20946</v>
+        <v>108920</v>
       </c>
       <c r="G85" s="9">
-        <v>35972</v>
+        <v>146150</v>
       </c>
       <c r="H85" s="9">
-        <v>47283</v>
+        <v>166572</v>
       </c>
       <c r="I85" s="9">
-        <v>82156</v>
-      </c>
-      <c r="J85" s="9">
-        <v>76700</v>
-      </c>
-      <c r="K85" s="9">
-        <v>99425</v>
-      </c>
-      <c r="L85" s="9">
-        <v>108920</v>
-      </c>
-      <c r="M85" s="9">
-        <v>146150</v>
-      </c>
-      <c r="N85" s="9">
-        <v>166572</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>141217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2922,13 +2069,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2937,13 +2079,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2952,15 +2089,10 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2979,23 +2111,8 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3004,52 +2121,32 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>26936</v>
+        <v>108805</v>
       </c>
       <c r="F91" s="9">
-        <v>40826</v>
+        <v>121704</v>
       </c>
       <c r="G91" s="9">
-        <v>56044</v>
+        <v>158299</v>
       </c>
       <c r="H91" s="9">
-        <v>-28115</v>
+        <v>147489</v>
       </c>
       <c r="I91" s="9">
-        <v>82628</v>
-      </c>
-      <c r="J91" s="9">
-        <v>96028</v>
-      </c>
-      <c r="K91" s="9">
-        <v>108805</v>
-      </c>
-      <c r="L91" s="9">
-        <v>121704</v>
-      </c>
-      <c r="M91" s="9">
-        <v>158299</v>
-      </c>
-      <c r="N91" s="9">
-        <v>153908</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+        <v>133303</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3058,13 +2155,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3073,13 +2165,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3088,15 +2175,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3115,23 +2197,8 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3140,52 +2207,32 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>31471</v>
+        <v>105981</v>
       </c>
       <c r="F97" s="9">
-        <v>37120</v>
+        <v>115880</v>
       </c>
       <c r="G97" s="9">
-        <v>52167</v>
+        <v>155062</v>
       </c>
       <c r="H97" s="9">
-        <v>-23776</v>
+        <v>152836</v>
       </c>
       <c r="I97" s="9">
-        <v>84426</v>
-      </c>
-      <c r="J97" s="9">
-        <v>89557</v>
-      </c>
-      <c r="K97" s="9">
-        <v>105981</v>
-      </c>
-      <c r="L97" s="9">
-        <v>115880</v>
-      </c>
-      <c r="M97" s="9">
-        <v>155062</v>
-      </c>
-      <c r="N97" s="9">
-        <v>158867</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+        <v>131987</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3194,13 +2241,8 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3209,13 +2251,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3224,15 +2261,10 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3251,23 +2283,8 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3276,52 +2293,32 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J103" s="9">
-        <v>99425</v>
-      </c>
-      <c r="K103" s="9">
+      <c r="E103" s="9">
         <v>108920</v>
       </c>
-      <c r="L103" s="9">
+      <c r="F103" s="9">
         <v>146150</v>
       </c>
-      <c r="M103" s="9">
+      <c r="G103" s="9">
         <v>166572</v>
       </c>
-      <c r="N103" s="9">
-        <v>144446</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H103" s="9">
+        <v>141217</v>
+      </c>
+      <c r="I103" s="9">
+        <v>165411</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3330,13 +2327,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3345,13 +2337,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3360,15 +2347,10 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3387,23 +2369,8 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3412,52 +2379,32 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1269</v>
+        <v>6862</v>
       </c>
       <c r="F109" s="9">
-        <v>1867</v>
+        <v>-12736</v>
       </c>
       <c r="G109" s="9">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="H109" s="9">
-        <v>-5084</v>
+        <v>0</v>
       </c>
       <c r="I109" s="9">
-        <v>109</v>
-      </c>
-      <c r="J109" s="9">
-        <v>5765</v>
-      </c>
-      <c r="K109" s="9">
-        <v>6862</v>
-      </c>
-      <c r="L109" s="9">
-        <v>-12736</v>
-      </c>
-      <c r="M109" s="9">
-        <v>0</v>
-      </c>
-      <c r="N109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3476,25 +2423,10 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-      <c r="J110" s="11">
-        <v>0</v>
-      </c>
-      <c r="K110" s="11">
-        <v>0</v>
-      </c>
-      <c r="L110" s="11">
-        <v>0</v>
-      </c>
-      <c r="M110" s="11">
-        <v>0</v>
-      </c>
-      <c r="N110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -3513,25 +2445,10 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-      <c r="J111" s="9">
-        <v>0</v>
-      </c>
-      <c r="K111" s="9">
-        <v>0</v>
-      </c>
-      <c r="L111" s="9">
-        <v>0</v>
-      </c>
-      <c r="M111" s="9">
-        <v>0</v>
-      </c>
-      <c r="N111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3550,33 +2467,18 @@
       <c r="I112" s="11">
         <v>0</v>
       </c>
-      <c r="J112" s="11">
-        <v>0</v>
-      </c>
-      <c r="K112" s="11">
-        <v>0</v>
-      </c>
-      <c r="L112" s="11">
-        <v>0</v>
-      </c>
-      <c r="M112" s="11">
-        <v>0</v>
-      </c>
-      <c r="N112" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>0</v>
+        <v>-37800</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
+        <v>-24006</v>
       </c>
       <c r="G113" s="9">
         <v>0</v>
@@ -3587,136 +2489,76 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-      <c r="J113" s="9">
-        <v>61806</v>
-      </c>
-      <c r="K113" s="9">
-        <v>-37800</v>
-      </c>
-      <c r="L113" s="9">
-        <v>-24006</v>
-      </c>
-      <c r="M113" s="9">
-        <v>0</v>
-      </c>
-      <c r="N113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>6647</v>
+        <v>38275</v>
       </c>
       <c r="F114" s="11">
-        <v>7773</v>
+        <v>45099</v>
       </c>
       <c r="G114" s="11">
-        <v>7700</v>
+        <v>36653</v>
       </c>
       <c r="H114" s="11">
-        <v>6460</v>
+        <v>39553</v>
       </c>
       <c r="I114" s="11">
-        <v>4290</v>
-      </c>
-      <c r="J114" s="11">
-        <v>30210</v>
-      </c>
-      <c r="K114" s="11">
-        <v>38275</v>
-      </c>
-      <c r="L114" s="11">
-        <v>45099</v>
-      </c>
-      <c r="M114" s="11">
-        <v>36653</v>
-      </c>
-      <c r="N114" s="11">
-        <v>40806</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+        <v>40370</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>10079</v>
+        <v>61916</v>
       </c>
       <c r="F115" s="9">
-        <v>10158</v>
+        <v>54164</v>
       </c>
       <c r="G115" s="9">
-        <v>9903</v>
+        <v>65996</v>
       </c>
       <c r="H115" s="9">
-        <v>9986</v>
+        <v>63533</v>
       </c>
       <c r="I115" s="9">
-        <v>1045</v>
-      </c>
-      <c r="J115" s="9">
-        <v>8051</v>
-      </c>
-      <c r="K115" s="9">
-        <v>61916</v>
-      </c>
-      <c r="L115" s="9">
-        <v>54164</v>
-      </c>
-      <c r="M115" s="9">
-        <v>65996</v>
-      </c>
-      <c r="N115" s="9">
-        <v>66633</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+        <v>68240</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>29265</v>
+        <v>48979</v>
       </c>
       <c r="F116" s="11">
-        <v>13474</v>
+        <v>129698</v>
       </c>
       <c r="G116" s="11">
-        <v>22001</v>
+        <v>111226</v>
       </c>
       <c r="H116" s="11">
-        <v>101691</v>
+        <v>136519</v>
       </c>
       <c r="I116" s="11">
-        <v>45314</v>
-      </c>
-      <c r="J116" s="11">
-        <v>70848</v>
-      </c>
-      <c r="K116" s="11">
-        <v>48979</v>
-      </c>
-      <c r="L116" s="11">
-        <v>129698</v>
-      </c>
-      <c r="M116" s="11">
-        <v>111226</v>
-      </c>
-      <c r="N116" s="11">
-        <v>143246</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+        <v>135745</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -3735,97 +2577,52 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-      <c r="J117" s="9">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9">
-        <v>0</v>
-      </c>
-      <c r="L117" s="9">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>30906</v>
+        <v>178307</v>
       </c>
       <c r="F118" s="11">
-        <v>52724</v>
+        <v>186762</v>
       </c>
       <c r="G118" s="11">
-        <v>58200</v>
+        <v>118012</v>
       </c>
       <c r="H118" s="11">
-        <v>63071</v>
+        <v>187457</v>
       </c>
       <c r="I118" s="11">
-        <v>21750</v>
-      </c>
-      <c r="J118" s="11">
-        <v>74243</v>
-      </c>
-      <c r="K118" s="11">
-        <v>178307</v>
-      </c>
-      <c r="L118" s="11">
-        <v>186762</v>
-      </c>
-      <c r="M118" s="11">
-        <v>118012</v>
-      </c>
-      <c r="N118" s="11">
-        <v>146431</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+        <v>158788</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>78166</v>
+        <v>296539</v>
       </c>
       <c r="F119" s="15">
-        <v>85996</v>
+        <v>378981</v>
       </c>
       <c r="G119" s="15">
-        <v>99839</v>
+        <v>331887</v>
       </c>
       <c r="H119" s="15">
-        <v>176124</v>
+        <v>427062</v>
       </c>
       <c r="I119" s="15">
-        <v>72508</v>
-      </c>
-      <c r="J119" s="15">
-        <v>250923</v>
-      </c>
-      <c r="K119" s="15">
-        <v>296539</v>
-      </c>
-      <c r="L119" s="15">
-        <v>378981</v>
-      </c>
-      <c r="M119" s="15">
-        <v>331887</v>
-      </c>
-      <c r="N119" s="15">
-        <v>397116</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+        <v>403143</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3834,13 +2631,8 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3849,13 +2641,8 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3864,60 +2651,55 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -3925,10 +2707,10 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -3936,10 +2718,10 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -3947,10 +2729,10 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3958,10 +2740,10 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -3969,10 +2751,10 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>

--- a/database/industries/dode/shesadaf/cost/quarterly.xlsx
+++ b/database/industries/dode/shesadaf/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862CE80-1F0D-40E2-9B9D-17286C13B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D21EF9-B8AB-4772-A26D-5185D7C4E73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -683,16 +701,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I133"/>
+  <dimension ref="B1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -701,8 +719,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,8 +736,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,8 +753,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -735,8 +768,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,8 +785,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -759,8 +802,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -769,8 +817,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -791,8 +844,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -801,98 +869,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>628431</v>
+      </c>
+      <c r="F10" s="9">
+        <v>908458</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1219919</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1469831</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1872661</v>
+      </c>
+      <c r="J10" s="9">
         <v>2597309</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>2715683</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>3968981</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>3896516</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>3118800</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>10574</v>
+      </c>
+      <c r="F11" s="11">
+        <v>16556</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15395</v>
+      </c>
+      <c r="H11" s="11">
+        <v>71993</v>
+      </c>
+      <c r="I11" s="11">
+        <v>-37912</v>
+      </c>
+      <c r="J11" s="11">
         <v>15615</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>29603</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>31501</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>27800</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>31650</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>85996</v>
+      </c>
+      <c r="F12" s="9">
+        <v>99839</v>
+      </c>
+      <c r="G12" s="9">
+        <v>176124</v>
+      </c>
+      <c r="H12" s="9">
+        <v>72508</v>
+      </c>
+      <c r="I12" s="9">
+        <v>250923</v>
+      </c>
+      <c r="J12" s="9">
         <v>296539</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>378981</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>331887</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>427062</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>403143</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>725001</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1024853</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1411438</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1614332</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2085672</v>
+      </c>
+      <c r="J13" s="13">
         <v>2909463</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>3124267</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>4332369</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>4351378</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>3553593</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -911,32 +1044,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>725001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1024853</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1411438</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1614332</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2085672</v>
+      </c>
+      <c r="J15" s="13">
         <v>2909463</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>3124267</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>4332369</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>4351378</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3553593</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -955,10 +1118,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -977,32 +1155,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>725001</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1024853</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1411438</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1614332</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2085672</v>
+      </c>
+      <c r="J18" s="15">
         <v>2909463</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>3124267</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>4332369</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>4351378</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>3553593</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1010,65 +1218,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>23714</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>500091</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1258329</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>1045053</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>2045716</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>152219</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-17774</v>
+      </c>
+      <c r="G20" s="9">
+        <v>12510</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-166325</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-205579</v>
+      </c>
+      <c r="J20" s="9">
         <v>-500091</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-1258329</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-1045053</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-2045716</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-2740403</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>877220</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1007079</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1423948</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1471721</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1880093</v>
+      </c>
+      <c r="J21" s="13">
         <v>2409372</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>2737933</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>4545645</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>3350715</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>2858906</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1087,30 +1340,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>877220</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1007079</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1423948</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1471721</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1880093</v>
+      </c>
+      <c r="J23" s="13">
         <v>2409372</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>2737933</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>4545645</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>3350715</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2858906</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1119,8 +1402,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1129,8 +1417,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1139,10 +1432,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1161,8 +1459,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1171,54 +1484,89 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>4493975</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5480410</v>
+      </c>
+      <c r="G29" s="9">
+        <v>4849205</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5431844</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5711666</v>
+      </c>
+      <c r="J29" s="9">
         <v>7328384</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>4033381</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>3473799</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>4914406</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>6783323</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>4493975</v>
+      </c>
+      <c r="F30" s="13">
+        <v>5480410</v>
+      </c>
+      <c r="G30" s="13">
+        <v>4849205</v>
+      </c>
+      <c r="H30" s="13">
+        <v>5431844</v>
+      </c>
+      <c r="I30" s="13">
+        <v>5711666</v>
+      </c>
+      <c r="J30" s="13">
         <v>7328384</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>4033381</v>
       </c>
-      <c r="G30" s="13">
+      <c r="L30" s="13">
         <v>3473799</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>4914406</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>6783323</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1227,8 +1575,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1237,8 +1590,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1247,10 +1605,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1269,8 +1632,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1279,54 +1657,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>17916048</v>
+      </c>
+      <c r="F36" s="9">
+        <v>16783328</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-51246226</v>
+      </c>
+      <c r="H36" s="9">
+        <v>17689548</v>
+      </c>
+      <c r="I36" s="9">
+        <v>22526930</v>
+      </c>
+      <c r="J36" s="9">
         <v>21212216</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>22875803</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>27036706</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>27363592</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>19486145</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>17916048</v>
+      </c>
+      <c r="F37" s="13">
+        <v>16783328</v>
+      </c>
+      <c r="G37" s="13">
+        <v>-51246226</v>
+      </c>
+      <c r="H37" s="13">
+        <v>17689548</v>
+      </c>
+      <c r="I37" s="13">
+        <v>22526930</v>
+      </c>
+      <c r="J37" s="13">
         <v>21212216</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>22875803</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>27036706</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>27363592</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>19486145</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1335,8 +1748,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1345,8 +1763,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1355,10 +1778,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1377,8 +1805,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1387,54 +1830,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>16929613</v>
+      </c>
+      <c r="F43" s="9">
+        <v>17414533</v>
+      </c>
+      <c r="G43" s="9">
+        <v>-51309523</v>
+      </c>
+      <c r="H43" s="9">
+        <v>17409726</v>
+      </c>
+      <c r="I43" s="9">
+        <v>20910212</v>
+      </c>
+      <c r="J43" s="9">
         <v>24507219</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>23435385</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>25596099</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>25494675</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>23629528</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>16929613</v>
+      </c>
+      <c r="F44" s="13">
+        <v>17414533</v>
+      </c>
+      <c r="G44" s="13">
+        <v>-51309523</v>
+      </c>
+      <c r="H44" s="13">
+        <v>17409726</v>
+      </c>
+      <c r="I44" s="13">
+        <v>20910212</v>
+      </c>
+      <c r="J44" s="13">
         <v>24507219</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>23435385</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>25596099</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>25494675</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>23629528</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1443,8 +1921,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1453,8 +1936,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1463,10 +1951,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1485,8 +1978,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1495,54 +2003,89 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>5480410</v>
+      </c>
+      <c r="F50" s="9">
+        <v>4849205</v>
+      </c>
+      <c r="G50" s="9">
+        <v>5432</v>
+      </c>
+      <c r="H50" s="9">
+        <v>5711666</v>
+      </c>
+      <c r="I50" s="9">
+        <v>7328384</v>
+      </c>
+      <c r="J50" s="9">
         <v>4033381</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>3473799</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>4914406</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>6783323</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>2639940</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>5480410</v>
+      </c>
+      <c r="F51" s="13">
+        <v>4849205</v>
+      </c>
+      <c r="G51" s="13">
+        <v>5432</v>
+      </c>
+      <c r="H51" s="13">
+        <v>5711666</v>
+      </c>
+      <c r="I51" s="13">
+        <v>7328384</v>
+      </c>
+      <c r="J51" s="13">
         <v>4033381</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>3473799</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>4914406</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>6783323</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>2639940</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1551,8 +2094,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1561,8 +2109,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1571,10 +2124,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1593,8 +2151,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1603,54 +2176,89 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>94133</v>
+      </c>
+      <c r="F57" s="9">
+        <v>197144</v>
+      </c>
+      <c r="G57" s="9">
+        <v>229287</v>
+      </c>
+      <c r="H57" s="9">
+        <v>446256</v>
+      </c>
+      <c r="I57" s="9">
+        <v>438082</v>
+      </c>
+      <c r="J57" s="9">
         <v>728625</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>439314</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>507697</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>818601</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>957922</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>94133</v>
+      </c>
+      <c r="F58" s="13">
+        <v>197144</v>
+      </c>
+      <c r="G58" s="13">
+        <v>229287</v>
+      </c>
+      <c r="H58" s="13">
+        <v>446256</v>
+      </c>
+      <c r="I58" s="13">
+        <v>438082</v>
+      </c>
+      <c r="J58" s="13">
         <v>728625</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>439314</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>507697</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>818601</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>957922</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1659,8 +2267,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1669,8 +2282,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1679,10 +2297,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1701,8 +2324,23 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1711,54 +2349,89 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>731442</v>
+      </c>
+      <c r="F64" s="9">
+        <v>940601</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1440772</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1461657</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2163206</v>
+      </c>
+      <c r="J64" s="9">
         <v>2307998</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>2784066</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>4279885</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>4035837</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>2597554</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>731442</v>
+      </c>
+      <c r="F65" s="13">
+        <v>940601</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1440772</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1461657</v>
+      </c>
+      <c r="I65" s="13">
+        <v>2163206</v>
+      </c>
+      <c r="J65" s="13">
         <v>2307998</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>2784066</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>4279885</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>4035837</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>2597554</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1767,8 +2440,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1777,8 +2455,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1787,10 +2470,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1809,8 +2497,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1819,54 +2522,89 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>628431</v>
+      </c>
+      <c r="F71" s="9">
+        <v>908458</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1219919</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1469831</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1872661</v>
+      </c>
+      <c r="J71" s="9">
         <v>2597309</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>2715683</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>3968981</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>3896516</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>3118800</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>628431</v>
+      </c>
+      <c r="F72" s="13">
+        <v>908458</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1219919</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1469831</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1872661</v>
+      </c>
+      <c r="J72" s="13">
         <v>2597309</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>2715683</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>3968981</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>3896516</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>3118800</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1875,8 +2613,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1885,8 +2628,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1895,10 +2643,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1917,8 +2670,23 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1927,54 +2695,89 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>197144</v>
+      </c>
+      <c r="F78" s="9">
+        <v>229287</v>
+      </c>
+      <c r="G78" s="9">
+        <v>446254</v>
+      </c>
+      <c r="H78" s="9">
+        <v>438082</v>
+      </c>
+      <c r="I78" s="9">
+        <v>728625</v>
+      </c>
+      <c r="J78" s="9">
         <v>439314</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>507697</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>818601</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>957922</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>436676</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>197144</v>
+      </c>
+      <c r="F79" s="13">
+        <v>229287</v>
+      </c>
+      <c r="G79" s="13">
+        <v>446254</v>
+      </c>
+      <c r="H79" s="13">
+        <v>438082</v>
+      </c>
+      <c r="I79" s="13">
+        <v>728625</v>
+      </c>
+      <c r="J79" s="13">
         <v>439314</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>507697</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>818601</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>957922</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>436676</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1983,8 +2786,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1993,8 +2801,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2003,10 +2816,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2025,8 +2843,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2035,32 +2868,52 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>20946</v>
+      </c>
+      <c r="F85" s="9">
+        <v>35972</v>
+      </c>
+      <c r="G85" s="9">
+        <v>47283</v>
+      </c>
+      <c r="H85" s="9">
+        <v>82156</v>
+      </c>
+      <c r="I85" s="9">
+        <v>76700</v>
+      </c>
+      <c r="J85" s="9">
         <v>99425</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>108920</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>146150</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>166572</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>141217</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2069,8 +2922,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2079,8 +2937,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2089,10 +2952,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2111,8 +2979,23 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2121,32 +3004,52 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>40826</v>
+      </c>
+      <c r="F91" s="9">
+        <v>56044</v>
+      </c>
+      <c r="G91" s="9">
+        <v>-28115</v>
+      </c>
+      <c r="H91" s="9">
+        <v>82628</v>
+      </c>
+      <c r="I91" s="9">
+        <v>96028</v>
+      </c>
+      <c r="J91" s="9">
         <v>108805</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>121704</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>158299</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>147489</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>133303</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2155,8 +3058,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2165,8 +3073,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2175,10 +3088,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2197,8 +3115,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2207,32 +3140,52 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>37120</v>
+      </c>
+      <c r="F97" s="9">
+        <v>52167</v>
+      </c>
+      <c r="G97" s="9">
+        <v>-23776</v>
+      </c>
+      <c r="H97" s="9">
+        <v>84426</v>
+      </c>
+      <c r="I97" s="9">
+        <v>89557</v>
+      </c>
+      <c r="J97" s="9">
         <v>105981</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>115880</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>155062</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>152836</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>131987</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2241,8 +3194,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2251,8 +3209,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2261,10 +3224,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2283,8 +3251,23 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2293,32 +3276,52 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="E103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" s="9">
+        <v>99425</v>
+      </c>
+      <c r="J103" s="9">
         <v>108920</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>146150</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>166572</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>141217</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>165411</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2327,8 +3330,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2337,8 +3345,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2347,10 +3360,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2369,8 +3387,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2379,32 +3412,52 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>1867</v>
+      </c>
+      <c r="F109" s="9">
+        <v>2035</v>
+      </c>
+      <c r="G109" s="9">
+        <v>-5084</v>
+      </c>
+      <c r="H109" s="9">
+        <v>109</v>
+      </c>
+      <c r="I109" s="9">
+        <v>5765</v>
+      </c>
+      <c r="J109" s="9">
         <v>6862</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>-12736</v>
       </c>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9">
-        <v>0</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L109" s="9">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2423,10 +3476,25 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2445,10 +3513,25 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2467,98 +3550,173 @@
       <c r="I112" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0</v>
+      </c>
+      <c r="I113" s="9">
+        <v>61806</v>
+      </c>
+      <c r="J113" s="9">
         <v>-37800</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>-24006</v>
       </c>
-      <c r="G113" s="9">
-        <v>0</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>7773</v>
+      </c>
+      <c r="F114" s="11">
+        <v>7700</v>
+      </c>
+      <c r="G114" s="11">
+        <v>6460</v>
+      </c>
+      <c r="H114" s="11">
+        <v>4290</v>
+      </c>
+      <c r="I114" s="11">
+        <v>30210</v>
+      </c>
+      <c r="J114" s="11">
         <v>38275</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>45099</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>36653</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>39553</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>40370</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>10158</v>
+      </c>
+      <c r="F115" s="9">
+        <v>9903</v>
+      </c>
+      <c r="G115" s="9">
+        <v>9986</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1045</v>
+      </c>
+      <c r="I115" s="9">
+        <v>8051</v>
+      </c>
+      <c r="J115" s="9">
         <v>61916</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>54164</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>65996</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>63533</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>68240</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>13474</v>
+      </c>
+      <c r="F116" s="11">
+        <v>22001</v>
+      </c>
+      <c r="G116" s="11">
+        <v>101691</v>
+      </c>
+      <c r="H116" s="11">
+        <v>45314</v>
+      </c>
+      <c r="I116" s="11">
+        <v>70848</v>
+      </c>
+      <c r="J116" s="11">
         <v>48979</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>129698</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>111226</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>136519</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>135745</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2577,52 +3735,97 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>52724</v>
+      </c>
+      <c r="F118" s="11">
+        <v>58200</v>
+      </c>
+      <c r="G118" s="11">
+        <v>63071</v>
+      </c>
+      <c r="H118" s="11">
+        <v>21750</v>
+      </c>
+      <c r="I118" s="11">
+        <v>74243</v>
+      </c>
+      <c r="J118" s="11">
         <v>178307</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>186762</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>118012</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>187457</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>158788</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>85996</v>
+      </c>
+      <c r="F119" s="15">
+        <v>99839</v>
+      </c>
+      <c r="G119" s="15">
+        <v>176124</v>
+      </c>
+      <c r="H119" s="15">
+        <v>72508</v>
+      </c>
+      <c r="I119" s="15">
+        <v>250923</v>
+      </c>
+      <c r="J119" s="15">
         <v>296539</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>378981</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>331887</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>427062</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>403143</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2631,8 +3834,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2641,8 +3849,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2651,110 +3864,115 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>

--- a/database/industries/dode/shesadaf/cost/quarterly.xlsx
+++ b/database/industries/dode/shesadaf/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D21EF9-B8AB-4772-A26D-5185D7C4E73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321D433-69CB-4A67-AF5E-DC64B7606E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -705,12 +705,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -725,7 +725,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -774,7 +774,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -823,7 +823,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -860,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -875,155 +875,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>628431</v>
+        <v>908458</v>
       </c>
       <c r="F10" s="9">
-        <v>908458</v>
+        <v>1219919</v>
       </c>
       <c r="G10" s="9">
-        <v>1219919</v>
+        <v>1469831</v>
       </c>
       <c r="H10" s="9">
-        <v>1469831</v>
+        <v>1872661</v>
       </c>
       <c r="I10" s="9">
-        <v>1872661</v>
+        <v>2597309</v>
       </c>
       <c r="J10" s="9">
-        <v>2597309</v>
+        <v>2715683</v>
       </c>
       <c r="K10" s="9">
-        <v>2715683</v>
+        <v>3968981</v>
       </c>
       <c r="L10" s="9">
-        <v>3968981</v>
+        <v>3896516</v>
       </c>
       <c r="M10" s="9">
-        <v>3896516</v>
+        <v>3118800</v>
       </c>
       <c r="N10" s="9">
-        <v>3118800</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2836002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>10574</v>
+        <v>16556</v>
       </c>
       <c r="F11" s="11">
-        <v>16556</v>
+        <v>15395</v>
       </c>
       <c r="G11" s="11">
-        <v>15395</v>
+        <v>71993</v>
       </c>
       <c r="H11" s="11">
-        <v>71993</v>
+        <v>-37912</v>
       </c>
       <c r="I11" s="11">
-        <v>-37912</v>
+        <v>15615</v>
       </c>
       <c r="J11" s="11">
-        <v>15615</v>
+        <v>29603</v>
       </c>
       <c r="K11" s="11">
-        <v>29603</v>
+        <v>31501</v>
       </c>
       <c r="L11" s="11">
-        <v>31501</v>
+        <v>27800</v>
       </c>
       <c r="M11" s="11">
-        <v>27800</v>
+        <v>31650</v>
       </c>
       <c r="N11" s="11">
-        <v>31650</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>85996</v>
+        <v>99839</v>
       </c>
       <c r="F12" s="9">
-        <v>99839</v>
+        <v>176124</v>
       </c>
       <c r="G12" s="9">
-        <v>176124</v>
+        <v>72508</v>
       </c>
       <c r="H12" s="9">
-        <v>72508</v>
+        <v>250923</v>
       </c>
       <c r="I12" s="9">
-        <v>250923</v>
+        <v>296539</v>
       </c>
       <c r="J12" s="9">
-        <v>296539</v>
+        <v>378981</v>
       </c>
       <c r="K12" s="9">
-        <v>378981</v>
+        <v>331887</v>
       </c>
       <c r="L12" s="9">
-        <v>331887</v>
+        <v>427062</v>
       </c>
       <c r="M12" s="9">
-        <v>427062</v>
+        <v>403143</v>
       </c>
       <c r="N12" s="9">
-        <v>403143</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>685142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>725001</v>
+        <v>1024853</v>
       </c>
       <c r="F13" s="13">
-        <v>1024853</v>
+        <v>1411438</v>
       </c>
       <c r="G13" s="13">
-        <v>1411438</v>
+        <v>1614332</v>
       </c>
       <c r="H13" s="13">
-        <v>1614332</v>
+        <v>2085672</v>
       </c>
       <c r="I13" s="13">
-        <v>2085672</v>
+        <v>2909463</v>
       </c>
       <c r="J13" s="13">
-        <v>2909463</v>
+        <v>3124267</v>
       </c>
       <c r="K13" s="13">
-        <v>3124267</v>
+        <v>4332369</v>
       </c>
       <c r="L13" s="13">
-        <v>4332369</v>
+        <v>4351378</v>
       </c>
       <c r="M13" s="13">
-        <v>4351378</v>
+        <v>3553593</v>
       </c>
       <c r="N13" s="13">
-        <v>3553593</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3566540</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1060,44 +1060,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>725001</v>
+        <v>1024853</v>
       </c>
       <c r="F15" s="13">
-        <v>1024853</v>
+        <v>1411438</v>
       </c>
       <c r="G15" s="13">
-        <v>1411438</v>
+        <v>1614332</v>
       </c>
       <c r="H15" s="13">
-        <v>1614332</v>
+        <v>2085672</v>
       </c>
       <c r="I15" s="13">
-        <v>2085672</v>
+        <v>2909463</v>
       </c>
       <c r="J15" s="13">
-        <v>2909463</v>
+        <v>3124267</v>
       </c>
       <c r="K15" s="13">
-        <v>3124267</v>
+        <v>4332369</v>
       </c>
       <c r="L15" s="13">
-        <v>4332369</v>
+        <v>4351378</v>
       </c>
       <c r="M15" s="13">
-        <v>4351378</v>
+        <v>3553593</v>
       </c>
       <c r="N15" s="13">
-        <v>3553593</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3566540</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1171,44 +1171,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>725001</v>
+        <v>1024853</v>
       </c>
       <c r="F18" s="15">
-        <v>1024853</v>
+        <v>1411438</v>
       </c>
       <c r="G18" s="15">
-        <v>1411438</v>
+        <v>1614332</v>
       </c>
       <c r="H18" s="15">
-        <v>1614332</v>
+        <v>2085672</v>
       </c>
       <c r="I18" s="15">
-        <v>2085672</v>
+        <v>2909463</v>
       </c>
       <c r="J18" s="15">
-        <v>2909463</v>
+        <v>3124267</v>
       </c>
       <c r="K18" s="15">
-        <v>3124267</v>
+        <v>4332369</v>
       </c>
       <c r="L18" s="15">
-        <v>4332369</v>
+        <v>4351378</v>
       </c>
       <c r="M18" s="15">
-        <v>4351378</v>
+        <v>3553593</v>
       </c>
       <c r="N18" s="15">
-        <v>3553593</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3566540</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1218,108 +1218,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>36224</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>23714</v>
       </c>
       <c r="H19" s="11">
-        <v>23714</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>371904</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>871995</v>
       </c>
       <c r="K19" s="11">
-        <v>500091</v>
+        <v>1258329</v>
       </c>
       <c r="L19" s="11">
-        <v>1258329</v>
+        <v>1045053</v>
       </c>
       <c r="M19" s="11">
-        <v>1045053</v>
+        <v>2045716</v>
       </c>
       <c r="N19" s="11">
-        <v>2045716</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2740403</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>152219</v>
+        <v>-17774</v>
       </c>
       <c r="F20" s="9">
-        <v>-17774</v>
+        <v>-23714</v>
       </c>
       <c r="G20" s="9">
-        <v>12510</v>
+        <v>-166325</v>
       </c>
       <c r="H20" s="9">
-        <v>-166325</v>
+        <v>-205579</v>
       </c>
       <c r="I20" s="9">
-        <v>-205579</v>
+        <v>-871995</v>
       </c>
       <c r="J20" s="9">
-        <v>-500091</v>
+        <v>-1258329</v>
       </c>
       <c r="K20" s="9">
-        <v>-1258329</v>
+        <v>-1045053</v>
       </c>
       <c r="L20" s="9">
-        <v>-1045053</v>
+        <v>-2045716</v>
       </c>
       <c r="M20" s="9">
-        <v>-2045716</v>
+        <v>-2740403</v>
       </c>
       <c r="N20" s="9">
-        <v>-2740403</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-788330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>877220</v>
+        <v>1007079</v>
       </c>
       <c r="F21" s="13">
-        <v>1007079</v>
+        <v>1423948</v>
       </c>
       <c r="G21" s="13">
-        <v>1423948</v>
+        <v>1471721</v>
       </c>
       <c r="H21" s="13">
-        <v>1471721</v>
+        <v>1880093</v>
       </c>
       <c r="I21" s="13">
-        <v>1880093</v>
+        <v>2409372</v>
       </c>
       <c r="J21" s="13">
-        <v>2409372</v>
+        <v>2737933</v>
       </c>
       <c r="K21" s="13">
-        <v>2737933</v>
+        <v>4545645</v>
       </c>
       <c r="L21" s="13">
-        <v>4545645</v>
+        <v>3350715</v>
       </c>
       <c r="M21" s="13">
-        <v>3350715</v>
+        <v>2858906</v>
       </c>
       <c r="N21" s="13">
-        <v>2858906</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5518613</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1356,44 +1356,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>877220</v>
+        <v>1007079</v>
       </c>
       <c r="F23" s="13">
-        <v>1007079</v>
+        <v>1423948</v>
       </c>
       <c r="G23" s="13">
-        <v>1423948</v>
+        <v>1471721</v>
       </c>
       <c r="H23" s="13">
-        <v>1471721</v>
+        <v>1880093</v>
       </c>
       <c r="I23" s="13">
-        <v>1880093</v>
+        <v>2409372</v>
       </c>
       <c r="J23" s="13">
-        <v>2409372</v>
+        <v>2737933</v>
       </c>
       <c r="K23" s="13">
-        <v>2737933</v>
+        <v>4545645</v>
       </c>
       <c r="L23" s="13">
-        <v>4545645</v>
+        <v>3350715</v>
       </c>
       <c r="M23" s="13">
-        <v>3350715</v>
+        <v>2858906</v>
       </c>
       <c r="N23" s="13">
-        <v>2858906</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5518613</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1408,7 +1408,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1423,7 +1423,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1499,74 +1499,74 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>4493975</v>
+        <v>5480410</v>
       </c>
       <c r="F29" s="9">
-        <v>5480410</v>
+        <v>4849205</v>
       </c>
       <c r="G29" s="9">
-        <v>4849205</v>
+        <v>5431844</v>
       </c>
       <c r="H29" s="9">
-        <v>5431844</v>
+        <v>5711666</v>
       </c>
       <c r="I29" s="9">
-        <v>5711666</v>
+        <v>7328384</v>
       </c>
       <c r="J29" s="9">
-        <v>7328384</v>
+        <v>4033381</v>
       </c>
       <c r="K29" s="9">
-        <v>4033381</v>
+        <v>3473799</v>
       </c>
       <c r="L29" s="9">
-        <v>3473799</v>
+        <v>4914406</v>
       </c>
       <c r="M29" s="9">
-        <v>4914406</v>
+        <v>6783323</v>
       </c>
       <c r="N29" s="9">
-        <v>6783323</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2639940</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>4493975</v>
+        <v>5480410</v>
       </c>
       <c r="F30" s="13">
-        <v>5480410</v>
+        <v>4849205</v>
       </c>
       <c r="G30" s="13">
-        <v>4849205</v>
+        <v>5431844</v>
       </c>
       <c r="H30" s="13">
-        <v>5431844</v>
+        <v>5711666</v>
       </c>
       <c r="I30" s="13">
-        <v>5711666</v>
+        <v>7328384</v>
       </c>
       <c r="J30" s="13">
-        <v>7328384</v>
+        <v>4033381</v>
       </c>
       <c r="K30" s="13">
-        <v>4033381</v>
+        <v>3473799</v>
       </c>
       <c r="L30" s="13">
-        <v>3473799</v>
+        <v>4914406</v>
       </c>
       <c r="M30" s="13">
-        <v>4914406</v>
+        <v>6783323</v>
       </c>
       <c r="N30" s="13">
-        <v>6783323</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2639940</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1581,7 +1581,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1663,7 +1663,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1672,74 +1672,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>17916048</v>
+        <v>16783328</v>
       </c>
       <c r="F36" s="9">
-        <v>16783328</v>
+        <v>-51246226</v>
       </c>
       <c r="G36" s="9">
-        <v>-51246226</v>
+        <v>17689548</v>
       </c>
       <c r="H36" s="9">
-        <v>17689548</v>
+        <v>22526930</v>
       </c>
       <c r="I36" s="9">
-        <v>22526930</v>
+        <v>21212216</v>
       </c>
       <c r="J36" s="9">
-        <v>21212216</v>
+        <v>22875803</v>
       </c>
       <c r="K36" s="9">
-        <v>22875803</v>
+        <v>27036706</v>
       </c>
       <c r="L36" s="9">
-        <v>27036706</v>
+        <v>27363592</v>
       </c>
       <c r="M36" s="9">
-        <v>27363592</v>
+        <v>19486145</v>
       </c>
       <c r="N36" s="9">
-        <v>19486145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29205541</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>17916048</v>
+        <v>16783328</v>
       </c>
       <c r="F37" s="13">
-        <v>16783328</v>
+        <v>-51246226</v>
       </c>
       <c r="G37" s="13">
-        <v>-51246226</v>
+        <v>17689548</v>
       </c>
       <c r="H37" s="13">
-        <v>17689548</v>
+        <v>22526930</v>
       </c>
       <c r="I37" s="13">
-        <v>22526930</v>
+        <v>21212216</v>
       </c>
       <c r="J37" s="13">
-        <v>21212216</v>
+        <v>22875803</v>
       </c>
       <c r="K37" s="13">
-        <v>22875803</v>
+        <v>27036706</v>
       </c>
       <c r="L37" s="13">
-        <v>27036706</v>
+        <v>27363592</v>
       </c>
       <c r="M37" s="13">
-        <v>27363592</v>
+        <v>19486145</v>
       </c>
       <c r="N37" s="13">
-        <v>19486145</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29205541</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1769,7 +1769,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1784,7 +1784,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1836,7 +1836,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1845,74 +1845,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>16929613</v>
+        <v>17414533</v>
       </c>
       <c r="F43" s="9">
-        <v>17414533</v>
+        <v>-51309523</v>
       </c>
       <c r="G43" s="9">
-        <v>-51309523</v>
+        <v>17409726</v>
       </c>
       <c r="H43" s="9">
-        <v>17409726</v>
+        <v>20910212</v>
       </c>
       <c r="I43" s="9">
-        <v>20910212</v>
+        <v>24507219</v>
       </c>
       <c r="J43" s="9">
-        <v>24507219</v>
+        <v>23435385</v>
       </c>
       <c r="K43" s="9">
-        <v>23435385</v>
+        <v>25596099</v>
       </c>
       <c r="L43" s="9">
-        <v>25596099</v>
+        <v>25494675</v>
       </c>
       <c r="M43" s="9">
-        <v>25494675</v>
+        <v>23629528</v>
       </c>
       <c r="N43" s="9">
-        <v>23629528</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22406875</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>16929613</v>
+        <v>17414533</v>
       </c>
       <c r="F44" s="13">
-        <v>17414533</v>
+        <v>-51309523</v>
       </c>
       <c r="G44" s="13">
-        <v>-51309523</v>
+        <v>17409726</v>
       </c>
       <c r="H44" s="13">
-        <v>17409726</v>
+        <v>20910212</v>
       </c>
       <c r="I44" s="13">
-        <v>20910212</v>
+        <v>24507219</v>
       </c>
       <c r="J44" s="13">
-        <v>24507219</v>
+        <v>23435385</v>
       </c>
       <c r="K44" s="13">
-        <v>23435385</v>
+        <v>25596099</v>
       </c>
       <c r="L44" s="13">
-        <v>25596099</v>
+        <v>25494675</v>
       </c>
       <c r="M44" s="13">
-        <v>25494675</v>
+        <v>23629528</v>
       </c>
       <c r="N44" s="13">
-        <v>23629528</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22406875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1927,7 +1927,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1942,7 +1942,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1957,7 +1957,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2018,74 +2018,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>5480410</v>
+        <v>4849205</v>
       </c>
       <c r="F50" s="9">
-        <v>4849205</v>
+        <v>5432</v>
       </c>
       <c r="G50" s="9">
-        <v>5432</v>
+        <v>5711666</v>
       </c>
       <c r="H50" s="9">
-        <v>5711666</v>
+        <v>7328384</v>
       </c>
       <c r="I50" s="9">
-        <v>7328384</v>
+        <v>4033381</v>
       </c>
       <c r="J50" s="9">
-        <v>4033381</v>
+        <v>3473799</v>
       </c>
       <c r="K50" s="9">
-        <v>3473799</v>
+        <v>4914406</v>
       </c>
       <c r="L50" s="9">
-        <v>4914406</v>
+        <v>6783323</v>
       </c>
       <c r="M50" s="9">
-        <v>6783323</v>
+        <v>2639940</v>
       </c>
       <c r="N50" s="9">
-        <v>2639940</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9438606</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>5480410</v>
+        <v>4849205</v>
       </c>
       <c r="F51" s="13">
-        <v>4849205</v>
+        <v>5432</v>
       </c>
       <c r="G51" s="13">
-        <v>5432</v>
+        <v>5711666</v>
       </c>
       <c r="H51" s="13">
-        <v>5711666</v>
+        <v>7328384</v>
       </c>
       <c r="I51" s="13">
-        <v>7328384</v>
+        <v>4033381</v>
       </c>
       <c r="J51" s="13">
-        <v>4033381</v>
+        <v>3473799</v>
       </c>
       <c r="K51" s="13">
-        <v>3473799</v>
+        <v>4914406</v>
       </c>
       <c r="L51" s="13">
-        <v>4914406</v>
+        <v>6783323</v>
       </c>
       <c r="M51" s="13">
-        <v>6783323</v>
+        <v>2639940</v>
       </c>
       <c r="N51" s="13">
-        <v>2639940</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9438606</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2115,7 +2115,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2130,7 +2130,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2182,7 +2182,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2191,74 +2191,74 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>94133</v>
+        <v>197144</v>
       </c>
       <c r="F57" s="9">
-        <v>197144</v>
+        <v>229287</v>
       </c>
       <c r="G57" s="9">
-        <v>229287</v>
+        <v>446256</v>
       </c>
       <c r="H57" s="9">
-        <v>446256</v>
+        <v>438082</v>
       </c>
       <c r="I57" s="9">
-        <v>438082</v>
+        <v>728625</v>
       </c>
       <c r="J57" s="9">
-        <v>728625</v>
+        <v>439314</v>
       </c>
       <c r="K57" s="9">
-        <v>439314</v>
+        <v>507697</v>
       </c>
       <c r="L57" s="9">
-        <v>507697</v>
+        <v>818601</v>
       </c>
       <c r="M57" s="9">
-        <v>818601</v>
+        <v>957922</v>
       </c>
       <c r="N57" s="9">
-        <v>957922</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>436676</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>94133</v>
+        <v>197144</v>
       </c>
       <c r="F58" s="13">
-        <v>197144</v>
+        <v>229287</v>
       </c>
       <c r="G58" s="13">
-        <v>229287</v>
+        <v>446256</v>
       </c>
       <c r="H58" s="13">
-        <v>446256</v>
+        <v>438082</v>
       </c>
       <c r="I58" s="13">
-        <v>438082</v>
+        <v>728625</v>
       </c>
       <c r="J58" s="13">
-        <v>728625</v>
+        <v>439314</v>
       </c>
       <c r="K58" s="13">
-        <v>439314</v>
+        <v>507697</v>
       </c>
       <c r="L58" s="13">
-        <v>507697</v>
+        <v>818601</v>
       </c>
       <c r="M58" s="13">
-        <v>818601</v>
+        <v>957922</v>
       </c>
       <c r="N58" s="13">
-        <v>957922</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>436676</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2303,7 +2303,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2355,7 +2355,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2364,74 +2364,74 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>731442</v>
+        <v>940601</v>
       </c>
       <c r="F64" s="9">
-        <v>940601</v>
+        <v>1440772</v>
       </c>
       <c r="G64" s="9">
-        <v>1440772</v>
+        <v>1461657</v>
       </c>
       <c r="H64" s="9">
-        <v>1461657</v>
+        <v>2163206</v>
       </c>
       <c r="I64" s="9">
-        <v>2163206</v>
+        <v>2307998</v>
       </c>
       <c r="J64" s="9">
-        <v>2307998</v>
+        <v>2784066</v>
       </c>
       <c r="K64" s="9">
-        <v>2784066</v>
+        <v>4279885</v>
       </c>
       <c r="L64" s="9">
-        <v>4279885</v>
+        <v>4035837</v>
       </c>
       <c r="M64" s="9">
-        <v>4035837</v>
+        <v>2597554</v>
       </c>
       <c r="N64" s="9">
-        <v>2597554</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3562687</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>731442</v>
+        <v>940601</v>
       </c>
       <c r="F65" s="13">
-        <v>940601</v>
+        <v>1440772</v>
       </c>
       <c r="G65" s="13">
-        <v>1440772</v>
+        <v>1461657</v>
       </c>
       <c r="H65" s="13">
-        <v>1461657</v>
+        <v>2163206</v>
       </c>
       <c r="I65" s="13">
-        <v>2163206</v>
+        <v>2307998</v>
       </c>
       <c r="J65" s="13">
-        <v>2307998</v>
+        <v>2784066</v>
       </c>
       <c r="K65" s="13">
-        <v>2784066</v>
+        <v>4279885</v>
       </c>
       <c r="L65" s="13">
-        <v>4279885</v>
+        <v>4035837</v>
       </c>
       <c r="M65" s="13">
-        <v>4035837</v>
+        <v>2597554</v>
       </c>
       <c r="N65" s="13">
-        <v>2597554</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3562687</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2461,7 +2461,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2476,7 +2476,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2528,7 +2528,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2537,74 +2537,74 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>628431</v>
+        <v>908458</v>
       </c>
       <c r="F71" s="9">
-        <v>908458</v>
+        <v>1219919</v>
       </c>
       <c r="G71" s="9">
-        <v>1219919</v>
+        <v>1469831</v>
       </c>
       <c r="H71" s="9">
-        <v>1469831</v>
+        <v>1872661</v>
       </c>
       <c r="I71" s="9">
-        <v>1872661</v>
+        <v>2597309</v>
       </c>
       <c r="J71" s="9">
-        <v>2597309</v>
+        <v>2715683</v>
       </c>
       <c r="K71" s="9">
-        <v>2715683</v>
+        <v>3968981</v>
       </c>
       <c r="L71" s="9">
-        <v>3968981</v>
+        <v>3896516</v>
       </c>
       <c r="M71" s="9">
-        <v>3896516</v>
+        <v>3118800</v>
       </c>
       <c r="N71" s="9">
-        <v>3118800</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2836002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>628431</v>
+        <v>908458</v>
       </c>
       <c r="F72" s="13">
-        <v>908458</v>
+        <v>1219919</v>
       </c>
       <c r="G72" s="13">
-        <v>1219919</v>
+        <v>1469831</v>
       </c>
       <c r="H72" s="13">
-        <v>1469831</v>
+        <v>1872661</v>
       </c>
       <c r="I72" s="13">
-        <v>1872661</v>
+        <v>2597309</v>
       </c>
       <c r="J72" s="13">
-        <v>2597309</v>
+        <v>2715683</v>
       </c>
       <c r="K72" s="13">
-        <v>2715683</v>
+        <v>3968981</v>
       </c>
       <c r="L72" s="13">
-        <v>3968981</v>
+        <v>3896516</v>
       </c>
       <c r="M72" s="13">
-        <v>3896516</v>
+        <v>3118800</v>
       </c>
       <c r="N72" s="13">
-        <v>3118800</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2836002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2634,7 +2634,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2649,7 +2649,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2701,7 +2701,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
@@ -2710,74 +2710,74 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>197144</v>
+        <v>229287</v>
       </c>
       <c r="F78" s="9">
-        <v>229287</v>
+        <v>446254</v>
       </c>
       <c r="G78" s="9">
-        <v>446254</v>
+        <v>438082</v>
       </c>
       <c r="H78" s="9">
-        <v>438082</v>
+        <v>728625</v>
       </c>
       <c r="I78" s="9">
-        <v>728625</v>
+        <v>439314</v>
       </c>
       <c r="J78" s="9">
-        <v>439314</v>
+        <v>507697</v>
       </c>
       <c r="K78" s="9">
-        <v>507697</v>
+        <v>818601</v>
       </c>
       <c r="L78" s="9">
-        <v>818601</v>
+        <v>957922</v>
       </c>
       <c r="M78" s="9">
-        <v>957922</v>
+        <v>436676</v>
       </c>
       <c r="N78" s="9">
-        <v>436676</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1163361</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>197144</v>
+        <v>229287</v>
       </c>
       <c r="F79" s="13">
-        <v>229287</v>
+        <v>446254</v>
       </c>
       <c r="G79" s="13">
-        <v>446254</v>
+        <v>438082</v>
       </c>
       <c r="H79" s="13">
-        <v>438082</v>
+        <v>728625</v>
       </c>
       <c r="I79" s="13">
-        <v>728625</v>
+        <v>439314</v>
       </c>
       <c r="J79" s="13">
-        <v>439314</v>
+        <v>507697</v>
       </c>
       <c r="K79" s="13">
-        <v>507697</v>
+        <v>818601</v>
       </c>
       <c r="L79" s="13">
-        <v>818601</v>
+        <v>957922</v>
       </c>
       <c r="M79" s="13">
-        <v>957922</v>
+        <v>436676</v>
       </c>
       <c r="N79" s="13">
-        <v>436676</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1163361</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2792,7 +2792,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2807,7 +2807,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2822,7 +2822,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>39</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2874,7 +2874,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2883,37 +2883,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>20946</v>
+        <v>35972</v>
       </c>
       <c r="F85" s="9">
-        <v>35972</v>
+        <v>47283</v>
       </c>
       <c r="G85" s="9">
-        <v>47283</v>
+        <v>82156</v>
       </c>
       <c r="H85" s="9">
-        <v>82156</v>
+        <v>76700</v>
       </c>
       <c r="I85" s="9">
-        <v>76700</v>
+        <v>99425</v>
       </c>
       <c r="J85" s="9">
-        <v>99425</v>
+        <v>108920</v>
       </c>
       <c r="K85" s="9">
-        <v>108920</v>
+        <v>146150</v>
       </c>
       <c r="L85" s="9">
-        <v>146150</v>
+        <v>166572</v>
       </c>
       <c r="M85" s="9">
-        <v>166572</v>
+        <v>141217</v>
       </c>
       <c r="N85" s="9">
-        <v>141217</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>165411</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2928,7 +2928,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2958,7 +2958,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3010,7 +3010,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -3019,37 +3019,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>40826</v>
+        <v>56044</v>
       </c>
       <c r="F91" s="9">
-        <v>56044</v>
+        <v>-28115</v>
       </c>
       <c r="G91" s="9">
-        <v>-28115</v>
+        <v>82628</v>
       </c>
       <c r="H91" s="9">
-        <v>82628</v>
+        <v>96028</v>
       </c>
       <c r="I91" s="9">
-        <v>96028</v>
+        <v>108805</v>
       </c>
       <c r="J91" s="9">
-        <v>108805</v>
+        <v>121704</v>
       </c>
       <c r="K91" s="9">
-        <v>121704</v>
+        <v>158299</v>
       </c>
       <c r="L91" s="9">
-        <v>158299</v>
+        <v>147489</v>
       </c>
       <c r="M91" s="9">
-        <v>147489</v>
+        <v>133303</v>
       </c>
       <c r="N91" s="9">
-        <v>133303</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121987</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3064,7 +3064,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3079,7 +3079,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3146,7 +3146,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3155,37 +3155,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>37120</v>
+        <v>52167</v>
       </c>
       <c r="F97" s="9">
-        <v>52167</v>
+        <v>-23776</v>
       </c>
       <c r="G97" s="9">
-        <v>-23776</v>
+        <v>84426</v>
       </c>
       <c r="H97" s="9">
-        <v>84426</v>
+        <v>89557</v>
       </c>
       <c r="I97" s="9">
-        <v>89557</v>
+        <v>105981</v>
       </c>
       <c r="J97" s="9">
-        <v>105981</v>
+        <v>115880</v>
       </c>
       <c r="K97" s="9">
-        <v>115880</v>
+        <v>155062</v>
       </c>
       <c r="L97" s="9">
-        <v>155062</v>
+        <v>152836</v>
       </c>
       <c r="M97" s="9">
-        <v>152836</v>
+        <v>131987</v>
       </c>
       <c r="N97" s="9">
-        <v>131987</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>126568</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3200,7 +3200,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3215,7 +3215,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3230,7 +3230,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>43</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3282,7 +3282,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3299,29 +3299,29 @@
       <c r="G103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
+      <c r="H103" s="9">
+        <v>99425</v>
       </c>
       <c r="I103" s="9">
-        <v>99425</v>
+        <v>108920</v>
       </c>
       <c r="J103" s="9">
-        <v>108920</v>
+        <v>146150</v>
       </c>
       <c r="K103" s="9">
-        <v>146150</v>
+        <v>166572</v>
       </c>
       <c r="L103" s="9">
-        <v>166572</v>
+        <v>141217</v>
       </c>
       <c r="M103" s="9">
-        <v>141217</v>
+        <v>165411</v>
       </c>
       <c r="N103" s="9">
-        <v>165411</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123256</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3336,7 +3336,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3351,7 +3351,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3366,7 +3366,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3418,32 +3418,32 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1867</v>
+        <v>2035</v>
       </c>
       <c r="F109" s="9">
-        <v>2035</v>
+        <v>-5084</v>
       </c>
       <c r="G109" s="9">
-        <v>-5084</v>
+        <v>109</v>
       </c>
       <c r="H109" s="9">
-        <v>109</v>
+        <v>5765</v>
       </c>
       <c r="I109" s="9">
-        <v>5765</v>
+        <v>6862</v>
       </c>
       <c r="J109" s="9">
-        <v>6862</v>
+        <v>-12736</v>
       </c>
       <c r="K109" s="9">
-        <v>-12736</v>
+        <v>0</v>
       </c>
       <c r="L109" s="9">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <v>0</v>
+        <v>61806</v>
       </c>
       <c r="I113" s="9">
-        <v>61806</v>
+        <v>-37800</v>
       </c>
       <c r="J113" s="9">
-        <v>-37800</v>
+        <v>-24006</v>
       </c>
       <c r="K113" s="9">
-        <v>-24006</v>
+        <v>0</v>
       </c>
       <c r="L113" s="9">
         <v>0</v>
@@ -3603,118 +3603,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>7773</v>
+        <v>7700</v>
       </c>
       <c r="F114" s="11">
-        <v>7700</v>
+        <v>6460</v>
       </c>
       <c r="G114" s="11">
-        <v>6460</v>
+        <v>4290</v>
       </c>
       <c r="H114" s="11">
-        <v>4290</v>
+        <v>30210</v>
       </c>
       <c r="I114" s="11">
-        <v>30210</v>
+        <v>38275</v>
       </c>
       <c r="J114" s="11">
-        <v>38275</v>
+        <v>45099</v>
       </c>
       <c r="K114" s="11">
-        <v>45099</v>
+        <v>36653</v>
       </c>
       <c r="L114" s="11">
-        <v>36653</v>
+        <v>39553</v>
       </c>
       <c r="M114" s="11">
-        <v>39553</v>
+        <v>40370</v>
       </c>
       <c r="N114" s="11">
-        <v>40370</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34238</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>10158</v>
+        <v>9903</v>
       </c>
       <c r="F115" s="9">
-        <v>9903</v>
+        <v>9986</v>
       </c>
       <c r="G115" s="9">
-        <v>9986</v>
+        <v>1045</v>
       </c>
       <c r="H115" s="9">
-        <v>1045</v>
+        <v>8051</v>
       </c>
       <c r="I115" s="9">
-        <v>8051</v>
+        <v>61916</v>
       </c>
       <c r="J115" s="9">
-        <v>61916</v>
+        <v>54164</v>
       </c>
       <c r="K115" s="9">
-        <v>54164</v>
+        <v>65996</v>
       </c>
       <c r="L115" s="9">
-        <v>65996</v>
+        <v>63533</v>
       </c>
       <c r="M115" s="9">
-        <v>63533</v>
+        <v>68240</v>
       </c>
       <c r="N115" s="9">
-        <v>68240</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58810</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>13474</v>
+        <v>22001</v>
       </c>
       <c r="F116" s="11">
-        <v>22001</v>
+        <v>101691</v>
       </c>
       <c r="G116" s="11">
-        <v>101691</v>
+        <v>45314</v>
       </c>
       <c r="H116" s="11">
-        <v>45314</v>
+        <v>70848</v>
       </c>
       <c r="I116" s="11">
-        <v>70848</v>
+        <v>48979</v>
       </c>
       <c r="J116" s="11">
-        <v>48979</v>
+        <v>129698</v>
       </c>
       <c r="K116" s="11">
-        <v>129698</v>
+        <v>111226</v>
       </c>
       <c r="L116" s="11">
-        <v>111226</v>
+        <v>136519</v>
       </c>
       <c r="M116" s="11">
-        <v>136519</v>
+        <v>135745</v>
       </c>
       <c r="N116" s="11">
-        <v>135745</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232383</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3751,81 +3751,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>52724</v>
+        <v>58200</v>
       </c>
       <c r="F118" s="11">
-        <v>58200</v>
+        <v>63071</v>
       </c>
       <c r="G118" s="11">
-        <v>63071</v>
+        <v>21750</v>
       </c>
       <c r="H118" s="11">
-        <v>21750</v>
+        <v>74243</v>
       </c>
       <c r="I118" s="11">
-        <v>74243</v>
+        <v>178307</v>
       </c>
       <c r="J118" s="11">
-        <v>178307</v>
+        <v>186762</v>
       </c>
       <c r="K118" s="11">
-        <v>186762</v>
+        <v>118012</v>
       </c>
       <c r="L118" s="11">
-        <v>118012</v>
+        <v>187457</v>
       </c>
       <c r="M118" s="11">
-        <v>187457</v>
+        <v>158788</v>
       </c>
       <c r="N118" s="11">
-        <v>158788</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>359711</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>85996</v>
+        <v>99839</v>
       </c>
       <c r="F119" s="15">
-        <v>99839</v>
+        <v>176124</v>
       </c>
       <c r="G119" s="15">
-        <v>176124</v>
+        <v>72508</v>
       </c>
       <c r="H119" s="15">
-        <v>72508</v>
+        <v>250923</v>
       </c>
       <c r="I119" s="15">
-        <v>250923</v>
+        <v>296539</v>
       </c>
       <c r="J119" s="15">
-        <v>296539</v>
+        <v>378981</v>
       </c>
       <c r="K119" s="15">
-        <v>378981</v>
+        <v>331887</v>
       </c>
       <c r="L119" s="15">
-        <v>331887</v>
+        <v>427062</v>
       </c>
       <c r="M119" s="15">
-        <v>427062</v>
+        <v>403143</v>
       </c>
       <c r="N119" s="15">
-        <v>403143</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>685142</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3840,7 +3840,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3855,7 +3855,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3870,7 +3870,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>56</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>57</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>59</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>61</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>63</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>65</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>67</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>69</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>71</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>73</v>
       </c>
